--- a/数据资料/佣金资料/业绩确认表和佣金表样.xlsx
+++ b/数据资料/佣金资料/业绩确认表和佣金表样.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\项目-结算\方案文档\样表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Project_Commission\数据资料\佣金资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="938" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" tabRatio="938" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="置业顾问佣金表" sheetId="15" r:id="rId1"/>
@@ -2490,6 +2490,66 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="30" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="31" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="38" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="32" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="33" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="10" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="28" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="25" fillId="6" borderId="33" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="25" fillId="6" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="25" fillId="6" borderId="28" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="25" fillId="6" borderId="32" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="25" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="34" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="35" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="36" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="32" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="25" fillId="6" borderId="32" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="25" fillId="6" borderId="1" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="40" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2502,65 +2562,68 @@
     <xf numFmtId="43" fontId="25" fillId="6" borderId="39" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="25" fillId="6" borderId="1" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="30" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="30" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="31" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="38" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="32" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="33" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="10" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="28" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="25" fillId="6" borderId="32" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="25" fillId="6" borderId="33" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="25" fillId="6" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="25" fillId="6" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="25" fillId="6" borderId="28" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="25" fillId="6" borderId="32" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="25" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="34" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="35" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="36" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="32" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="25" fillId="6" borderId="32" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="40" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2568,68 +2631,26 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="41" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="26" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="30" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="26" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="26" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="26" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="26" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="25" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="26" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="25" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="25" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="25" fillId="6" borderId="32" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="25" fillId="6" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2652,15 +2673,6 @@
     <xf numFmtId="0" fontId="26" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="26" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="26" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2677,18 +2689,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="26" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3279,103 +3279,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="280" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="365" t="s">
+      <c r="A1" s="359" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="365"/>
-      <c r="C1" s="365"/>
-      <c r="D1" s="365"/>
-      <c r="E1" s="365"/>
-      <c r="F1" s="365"/>
-      <c r="G1" s="365"/>
-      <c r="H1" s="365"/>
-      <c r="I1" s="365"/>
-      <c r="J1" s="365"/>
-      <c r="K1" s="365"/>
-      <c r="L1" s="365"/>
-      <c r="M1" s="365"/>
-      <c r="N1" s="365"/>
-      <c r="O1" s="365"/>
-      <c r="P1" s="365"/>
+      <c r="B1" s="359"/>
+      <c r="C1" s="359"/>
+      <c r="D1" s="359"/>
+      <c r="E1" s="359"/>
+      <c r="F1" s="359"/>
+      <c r="G1" s="359"/>
+      <c r="H1" s="359"/>
+      <c r="I1" s="359"/>
+      <c r="J1" s="359"/>
+      <c r="K1" s="359"/>
+      <c r="L1" s="359"/>
+      <c r="M1" s="359"/>
+      <c r="N1" s="359"/>
+      <c r="O1" s="359"/>
+      <c r="P1" s="359"/>
     </row>
     <row r="2" spans="1:16" s="281" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="366" t="s">
+      <c r="A2" s="360" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="368" t="s">
+      <c r="B2" s="362" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="368" t="s">
+      <c r="C2" s="362" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="370" t="s">
+      <c r="D2" s="364" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="373" t="s">
+      <c r="E2" s="367" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="376" t="s">
+      <c r="F2" s="370" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="378" t="s">
+      <c r="G2" s="372" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="379"/>
-      <c r="I2" s="379"/>
-      <c r="J2" s="379"/>
-      <c r="K2" s="379"/>
-      <c r="L2" s="379"/>
-      <c r="M2" s="380"/>
-      <c r="N2" s="381" t="s">
+      <c r="H2" s="373"/>
+      <c r="I2" s="373"/>
+      <c r="J2" s="373"/>
+      <c r="K2" s="373"/>
+      <c r="L2" s="373"/>
+      <c r="M2" s="374"/>
+      <c r="N2" s="375" t="s">
         <v>67</v>
       </c>
-      <c r="O2" s="382" t="s">
+      <c r="O2" s="377" t="s">
         <v>68</v>
       </c>
-      <c r="P2" s="361" t="s">
+      <c r="P2" s="381" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="281" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="367"/>
-      <c r="B3" s="369"/>
-      <c r="C3" s="369"/>
-      <c r="D3" s="371"/>
-      <c r="E3" s="374" t="s">
+      <c r="A3" s="361"/>
+      <c r="B3" s="363"/>
+      <c r="C3" s="363"/>
+      <c r="D3" s="365"/>
+      <c r="E3" s="368" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="377"/>
-      <c r="G3" s="363" t="s">
+      <c r="F3" s="371"/>
+      <c r="G3" s="376" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="363" t="s">
+      <c r="H3" s="376" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="364" t="s">
+      <c r="I3" s="378" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="363" t="s">
+      <c r="J3" s="376" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="363"/>
-      <c r="L3" s="363" t="s">
+      <c r="K3" s="376"/>
+      <c r="L3" s="376" t="s">
         <v>74</v>
       </c>
-      <c r="M3" s="363"/>
-      <c r="N3" s="363"/>
-      <c r="O3" s="364"/>
-      <c r="P3" s="362"/>
+      <c r="M3" s="376"/>
+      <c r="N3" s="376"/>
+      <c r="O3" s="378"/>
+      <c r="P3" s="382"/>
     </row>
     <row r="4" spans="1:16" s="281" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="367"/>
-      <c r="B4" s="369"/>
-      <c r="C4" s="369"/>
-      <c r="D4" s="372"/>
-      <c r="E4" s="375"/>
-      <c r="F4" s="377"/>
-      <c r="G4" s="363"/>
-      <c r="H4" s="363"/>
-      <c r="I4" s="364"/>
+      <c r="A4" s="361"/>
+      <c r="B4" s="363"/>
+      <c r="C4" s="363"/>
+      <c r="D4" s="366"/>
+      <c r="E4" s="369"/>
+      <c r="F4" s="371"/>
+      <c r="G4" s="376"/>
+      <c r="H4" s="376"/>
+      <c r="I4" s="378"/>
       <c r="J4" s="282" t="s">
         <v>75</v>
       </c>
@@ -3388,9 +3388,9 @@
       <c r="M4" s="283" t="s">
         <v>76</v>
       </c>
-      <c r="N4" s="363"/>
-      <c r="O4" s="364"/>
-      <c r="P4" s="362"/>
+      <c r="N4" s="376"/>
+      <c r="O4" s="378"/>
+      <c r="P4" s="382"/>
     </row>
     <row r="5" spans="1:16" s="281" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="284">
@@ -3993,11 +3993,11 @@
       <c r="P19" s="293"/>
     </row>
     <row r="20" spans="1:16" s="312" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="359" t="s">
+      <c r="A20" s="379" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="360"/>
-      <c r="C20" s="360"/>
+      <c r="B20" s="380"/>
+      <c r="C20" s="380"/>
       <c r="D20" s="305">
         <f>SUM(D5:D19)</f>
         <v>0</v>
@@ -4093,6 +4093,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
@@ -4103,13 +4110,6 @@
     <mergeCell ref="G2:M2"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="O2:O4"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="P2:P4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4345,105 +4345,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="386" t="s">
+      <c r="A1" s="384" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="386"/>
-      <c r="C1" s="386"/>
-      <c r="D1" s="386"/>
-      <c r="E1" s="386"/>
-      <c r="F1" s="386"/>
-      <c r="G1" s="386"/>
-      <c r="H1" s="386"/>
-      <c r="I1" s="386"/>
-      <c r="J1" s="386"/>
-      <c r="K1" s="386"/>
-      <c r="L1" s="386"/>
-      <c r="M1" s="386"/>
-      <c r="N1" s="386"/>
-      <c r="O1" s="386"/>
-      <c r="P1" s="386"/>
-      <c r="Q1" s="386"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="384"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
+      <c r="L1" s="384"/>
+      <c r="M1" s="384"/>
+      <c r="N1" s="384"/>
+      <c r="O1" s="384"/>
+      <c r="P1" s="384"/>
+      <c r="Q1" s="384"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="387" t="s">
+      <c r="A2" s="385" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="389" t="s">
+      <c r="B2" s="387" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="389" t="s">
+      <c r="C2" s="387" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="391" t="s">
+      <c r="D2" s="389" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="394" t="s">
+      <c r="E2" s="392" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="396" t="s">
+      <c r="F2" s="394" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="396"/>
-      <c r="H2" s="396"/>
-      <c r="I2" s="396"/>
-      <c r="J2" s="396"/>
-      <c r="K2" s="396"/>
-      <c r="L2" s="396"/>
-      <c r="M2" s="396"/>
-      <c r="N2" s="396"/>
-      <c r="O2" s="397" t="s">
+      <c r="G2" s="394"/>
+      <c r="H2" s="394"/>
+      <c r="I2" s="394"/>
+      <c r="J2" s="394"/>
+      <c r="K2" s="394"/>
+      <c r="L2" s="394"/>
+      <c r="M2" s="394"/>
+      <c r="N2" s="394"/>
+      <c r="O2" s="395" t="s">
         <v>67</v>
       </c>
-      <c r="P2" s="400" t="s">
+      <c r="P2" s="398" t="s">
         <v>85</v>
       </c>
-      <c r="Q2" s="403" t="s">
+      <c r="Q2" s="401" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="388"/>
-      <c r="B3" s="390"/>
-      <c r="C3" s="390"/>
-      <c r="D3" s="392" t="s">
+      <c r="A3" s="386"/>
+      <c r="B3" s="388"/>
+      <c r="C3" s="388"/>
+      <c r="D3" s="390" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="395"/>
-      <c r="F3" s="385" t="s">
+      <c r="E3" s="393"/>
+      <c r="F3" s="383" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="385" t="s">
+      <c r="G3" s="383" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="385" t="s">
+      <c r="H3" s="383" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="385" t="s">
+      <c r="I3" s="383" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="385"/>
-      <c r="K3" s="385" t="s">
+      <c r="J3" s="383"/>
+      <c r="K3" s="383" t="s">
         <v>86</v>
       </c>
-      <c r="L3" s="385"/>
-      <c r="M3" s="385" t="s">
+      <c r="L3" s="383"/>
+      <c r="M3" s="383" t="s">
         <v>74</v>
       </c>
-      <c r="N3" s="385"/>
-      <c r="O3" s="398"/>
-      <c r="P3" s="401"/>
-      <c r="Q3" s="404"/>
+      <c r="N3" s="383"/>
+      <c r="O3" s="396"/>
+      <c r="P3" s="399"/>
+      <c r="Q3" s="402"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="388"/>
-      <c r="B4" s="390"/>
-      <c r="C4" s="390"/>
-      <c r="D4" s="393"/>
-      <c r="E4" s="395"/>
-      <c r="F4" s="385"/>
-      <c r="G4" s="385"/>
-      <c r="H4" s="385"/>
+      <c r="A4" s="386"/>
+      <c r="B4" s="388"/>
+      <c r="C4" s="388"/>
+      <c r="D4" s="391"/>
+      <c r="E4" s="393"/>
+      <c r="F4" s="383"/>
+      <c r="G4" s="383"/>
+      <c r="H4" s="383"/>
       <c r="I4" s="331" t="s">
         <v>75</v>
       </c>
@@ -4460,9 +4460,9 @@
       <c r="N4" s="331" t="s">
         <v>76</v>
       </c>
-      <c r="O4" s="399"/>
-      <c r="P4" s="402"/>
-      <c r="Q4" s="405"/>
+      <c r="O4" s="397"/>
+      <c r="P4" s="400"/>
+      <c r="Q4" s="403"/>
     </row>
     <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="332">
@@ -4595,11 +4595,11 @@
       <c r="Q7" s="344"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="383" t="s">
+      <c r="A8" s="404" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="384"/>
-      <c r="C8" s="384"/>
+      <c r="B8" s="405"/>
+      <c r="C8" s="405"/>
       <c r="D8" s="345"/>
       <c r="E8" s="346"/>
       <c r="F8" s="345"/>
@@ -4670,6 +4670,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="A1:Q1"/>
@@ -4682,11 +4687,6 @@
     <mergeCell ref="O2:O4"/>
     <mergeCell ref="P2:P4"/>
     <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:J3"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4741,46 +4741,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:273" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="406" t="s">
+      <c r="A1" s="413" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="406"/>
-      <c r="C1" s="406"/>
-      <c r="D1" s="407"/>
-      <c r="E1" s="407"/>
-      <c r="F1" s="407"/>
-      <c r="G1" s="407"/>
-      <c r="H1" s="407"/>
-      <c r="I1" s="407"/>
-      <c r="J1" s="407"/>
-      <c r="K1" s="407"/>
-      <c r="L1" s="407"/>
-      <c r="M1" s="407"/>
-      <c r="N1" s="407"/>
-      <c r="O1" s="407"/>
-      <c r="P1" s="407"/>
-      <c r="Q1" s="407"/>
-      <c r="R1" s="407"/>
-      <c r="S1" s="407"/>
-      <c r="T1" s="407"/>
-      <c r="U1" s="407"/>
-      <c r="V1" s="407"/>
-      <c r="W1" s="407"/>
-      <c r="X1" s="407"/>
-      <c r="Y1" s="407"/>
-      <c r="Z1" s="407"/>
-      <c r="AA1" s="407"/>
-      <c r="AB1" s="407"/>
-      <c r="AC1" s="407"/>
-      <c r="AD1" s="407"/>
-      <c r="AE1" s="407"/>
-      <c r="AF1" s="407"/>
-      <c r="AG1" s="407"/>
-      <c r="AH1" s="407"/>
-      <c r="AI1" s="407"/>
-      <c r="AJ1" s="407"/>
-      <c r="AK1" s="407"/>
-      <c r="AL1" s="407"/>
+      <c r="B1" s="413"/>
+      <c r="C1" s="413"/>
+      <c r="D1" s="414"/>
+      <c r="E1" s="414"/>
+      <c r="F1" s="414"/>
+      <c r="G1" s="414"/>
+      <c r="H1" s="414"/>
+      <c r="I1" s="414"/>
+      <c r="J1" s="414"/>
+      <c r="K1" s="414"/>
+      <c r="L1" s="414"/>
+      <c r="M1" s="414"/>
+      <c r="N1" s="414"/>
+      <c r="O1" s="414"/>
+      <c r="P1" s="414"/>
+      <c r="Q1" s="414"/>
+      <c r="R1" s="414"/>
+      <c r="S1" s="414"/>
+      <c r="T1" s="414"/>
+      <c r="U1" s="414"/>
+      <c r="V1" s="414"/>
+      <c r="W1" s="414"/>
+      <c r="X1" s="414"/>
+      <c r="Y1" s="414"/>
+      <c r="Z1" s="414"/>
+      <c r="AA1" s="414"/>
+      <c r="AB1" s="414"/>
+      <c r="AC1" s="414"/>
+      <c r="AD1" s="414"/>
+      <c r="AE1" s="414"/>
+      <c r="AF1" s="414"/>
+      <c r="AG1" s="414"/>
+      <c r="AH1" s="414"/>
+      <c r="AI1" s="414"/>
+      <c r="AJ1" s="414"/>
+      <c r="AK1" s="414"/>
+      <c r="AL1" s="414"/>
     </row>
     <row r="2" spans="1:273" x14ac:dyDescent="0.15">
       <c r="A2" s="234"/>
@@ -4818,79 +4818,79 @@
       <c r="AG2" s="270"/>
       <c r="AH2" s="270"/>
       <c r="AI2" s="270"/>
-      <c r="AJ2" s="408" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="408"/>
+      <c r="AJ2" s="415" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="415"/>
       <c r="AL2" s="270"/>
     </row>
     <row r="3" spans="1:273" s="227" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="409" t="s">
+      <c r="A3" s="416" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="411" t="s">
+      <c r="B3" s="418" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="413" t="s">
+      <c r="C3" s="407" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="414"/>
-      <c r="E3" s="414"/>
-      <c r="F3" s="415"/>
-      <c r="G3" s="416" t="s">
+      <c r="D3" s="408"/>
+      <c r="E3" s="408"/>
+      <c r="F3" s="409"/>
+      <c r="G3" s="420" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="416"/>
-      <c r="I3" s="416"/>
-      <c r="J3" s="417"/>
-      <c r="K3" s="414" t="s">
+      <c r="H3" s="420"/>
+      <c r="I3" s="420"/>
+      <c r="J3" s="421"/>
+      <c r="K3" s="408" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="414"/>
-      <c r="M3" s="414"/>
-      <c r="N3" s="414"/>
-      <c r="O3" s="413" t="s">
+      <c r="L3" s="408"/>
+      <c r="M3" s="408"/>
+      <c r="N3" s="408"/>
+      <c r="O3" s="407" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="414"/>
-      <c r="Q3" s="414"/>
-      <c r="R3" s="414"/>
-      <c r="S3" s="414" t="s">
+      <c r="P3" s="408"/>
+      <c r="Q3" s="408"/>
+      <c r="R3" s="408"/>
+      <c r="S3" s="408" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="414"/>
-      <c r="U3" s="414"/>
-      <c r="V3" s="415"/>
-      <c r="W3" s="413" t="s">
+      <c r="T3" s="408"/>
+      <c r="U3" s="408"/>
+      <c r="V3" s="409"/>
+      <c r="W3" s="407" t="s">
         <v>45</v>
       </c>
-      <c r="X3" s="414"/>
-      <c r="Y3" s="414"/>
-      <c r="Z3" s="415"/>
-      <c r="AA3" s="413" t="s">
+      <c r="X3" s="408"/>
+      <c r="Y3" s="408"/>
+      <c r="Z3" s="409"/>
+      <c r="AA3" s="407" t="s">
         <v>46</v>
       </c>
-      <c r="AB3" s="414"/>
-      <c r="AC3" s="414"/>
-      <c r="AD3" s="415"/>
-      <c r="AE3" s="423" t="s">
+      <c r="AB3" s="408"/>
+      <c r="AC3" s="408"/>
+      <c r="AD3" s="409"/>
+      <c r="AE3" s="410" t="s">
         <v>8</v>
       </c>
-      <c r="AF3" s="423"/>
-      <c r="AG3" s="414" t="s">
+      <c r="AF3" s="410"/>
+      <c r="AG3" s="408" t="s">
         <v>9</v>
       </c>
-      <c r="AH3" s="415"/>
-      <c r="AI3" s="424" t="s">
+      <c r="AH3" s="409"/>
+      <c r="AI3" s="411" t="s">
         <v>91</v>
       </c>
-      <c r="AJ3" s="420" t="s">
+      <c r="AJ3" s="424" t="s">
         <v>70</v>
       </c>
-      <c r="AK3" s="418" t="s">
+      <c r="AK3" s="422" t="s">
         <v>10</v>
       </c>
-      <c r="AL3" s="418" t="s">
+      <c r="AL3" s="422" t="s">
         <v>56</v>
       </c>
       <c r="AM3" s="260"/>
@@ -5130,8 +5130,8 @@
       <c r="JM3" s="264"/>
     </row>
     <row r="4" spans="1:273" s="228" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="410"/>
-      <c r="B4" s="412"/>
+      <c r="A4" s="417"/>
+      <c r="B4" s="419"/>
       <c r="C4" s="237" t="s">
         <v>13</v>
       </c>
@@ -5228,10 +5228,10 @@
       <c r="AH4" s="255" t="s">
         <v>16</v>
       </c>
-      <c r="AI4" s="425"/>
-      <c r="AJ4" s="421"/>
-      <c r="AK4" s="419"/>
-      <c r="AL4" s="419"/>
+      <c r="AI4" s="412"/>
+      <c r="AJ4" s="425"/>
+      <c r="AK4" s="423"/>
+      <c r="AL4" s="423"/>
       <c r="AM4" s="261"/>
       <c r="AN4" s="261"/>
       <c r="AO4" s="261"/>
@@ -6619,11 +6619,11 @@
       <c r="JM8" s="264"/>
     </row>
     <row r="9" spans="1:273" s="233" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="422" t="s">
+      <c r="A9" s="406" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="422"/>
-      <c r="C9" s="422"/>
+      <c r="B9" s="406"/>
+      <c r="C9" s="406"/>
       <c r="D9" s="231"/>
       <c r="E9" s="231"/>
       <c r="F9" s="231"/>
@@ -7724,11 +7724,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="AA3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AI4"/>
     <mergeCell ref="A1:AL1"/>
     <mergeCell ref="AJ2:AK2"/>
     <mergeCell ref="A3:A4"/>
@@ -7742,6 +7737,11 @@
     <mergeCell ref="AK3:AK4"/>
     <mergeCell ref="AL3:AL4"/>
     <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AI4"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7798,46 +7798,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:273" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="406" t="s">
+      <c r="A1" s="413" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="406"/>
-      <c r="C1" s="406"/>
-      <c r="D1" s="407"/>
-      <c r="E1" s="407"/>
-      <c r="F1" s="407"/>
-      <c r="G1" s="407"/>
-      <c r="H1" s="407"/>
-      <c r="I1" s="407"/>
-      <c r="J1" s="407"/>
-      <c r="K1" s="407"/>
-      <c r="L1" s="407"/>
-      <c r="M1" s="407"/>
-      <c r="N1" s="407"/>
-      <c r="O1" s="407"/>
-      <c r="P1" s="407"/>
-      <c r="Q1" s="407"/>
-      <c r="R1" s="407"/>
-      <c r="S1" s="407"/>
-      <c r="T1" s="407"/>
-      <c r="U1" s="407"/>
-      <c r="V1" s="407"/>
-      <c r="W1" s="407"/>
-      <c r="X1" s="407"/>
-      <c r="Y1" s="407"/>
-      <c r="Z1" s="407"/>
-      <c r="AA1" s="407"/>
-      <c r="AB1" s="407"/>
-      <c r="AC1" s="407"/>
-      <c r="AD1" s="407"/>
-      <c r="AE1" s="407"/>
-      <c r="AF1" s="407"/>
-      <c r="AG1" s="407"/>
-      <c r="AH1" s="407"/>
-      <c r="AI1" s="407"/>
-      <c r="AJ1" s="407"/>
-      <c r="AK1" s="407"/>
-      <c r="AL1" s="407"/>
+      <c r="B1" s="413"/>
+      <c r="C1" s="413"/>
+      <c r="D1" s="414"/>
+      <c r="E1" s="414"/>
+      <c r="F1" s="414"/>
+      <c r="G1" s="414"/>
+      <c r="H1" s="414"/>
+      <c r="I1" s="414"/>
+      <c r="J1" s="414"/>
+      <c r="K1" s="414"/>
+      <c r="L1" s="414"/>
+      <c r="M1" s="414"/>
+      <c r="N1" s="414"/>
+      <c r="O1" s="414"/>
+      <c r="P1" s="414"/>
+      <c r="Q1" s="414"/>
+      <c r="R1" s="414"/>
+      <c r="S1" s="414"/>
+      <c r="T1" s="414"/>
+      <c r="U1" s="414"/>
+      <c r="V1" s="414"/>
+      <c r="W1" s="414"/>
+      <c r="X1" s="414"/>
+      <c r="Y1" s="414"/>
+      <c r="Z1" s="414"/>
+      <c r="AA1" s="414"/>
+      <c r="AB1" s="414"/>
+      <c r="AC1" s="414"/>
+      <c r="AD1" s="414"/>
+      <c r="AE1" s="414"/>
+      <c r="AF1" s="414"/>
+      <c r="AG1" s="414"/>
+      <c r="AH1" s="414"/>
+      <c r="AI1" s="414"/>
+      <c r="AJ1" s="414"/>
+      <c r="AK1" s="414"/>
+      <c r="AL1" s="414"/>
     </row>
     <row r="2" spans="1:273" x14ac:dyDescent="0.15">
       <c r="A2" s="234"/>
@@ -7875,79 +7875,79 @@
       <c r="AG2" s="258"/>
       <c r="AH2" s="258"/>
       <c r="AI2" s="258"/>
-      <c r="AJ2" s="408" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="408"/>
+      <c r="AJ2" s="415" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="415"/>
       <c r="AL2" s="258"/>
     </row>
     <row r="3" spans="1:273" s="227" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="409" t="s">
+      <c r="A3" s="416" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="411" t="s">
+      <c r="B3" s="418" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="413" t="s">
+      <c r="C3" s="407" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="414"/>
-      <c r="E3" s="414"/>
-      <c r="F3" s="415"/>
-      <c r="G3" s="416" t="s">
+      <c r="D3" s="408"/>
+      <c r="E3" s="408"/>
+      <c r="F3" s="409"/>
+      <c r="G3" s="420" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="416"/>
-      <c r="I3" s="416"/>
-      <c r="J3" s="417"/>
-      <c r="K3" s="414" t="s">
+      <c r="H3" s="420"/>
+      <c r="I3" s="420"/>
+      <c r="J3" s="421"/>
+      <c r="K3" s="408" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="414"/>
-      <c r="M3" s="414"/>
-      <c r="N3" s="414"/>
-      <c r="O3" s="413" t="s">
+      <c r="L3" s="408"/>
+      <c r="M3" s="408"/>
+      <c r="N3" s="408"/>
+      <c r="O3" s="407" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="414"/>
-      <c r="Q3" s="414"/>
-      <c r="R3" s="414"/>
-      <c r="S3" s="414" t="s">
+      <c r="P3" s="408"/>
+      <c r="Q3" s="408"/>
+      <c r="R3" s="408"/>
+      <c r="S3" s="408" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="414"/>
-      <c r="U3" s="414"/>
-      <c r="V3" s="415"/>
-      <c r="W3" s="413" t="s">
+      <c r="T3" s="408"/>
+      <c r="U3" s="408"/>
+      <c r="V3" s="409"/>
+      <c r="W3" s="407" t="s">
         <v>45</v>
       </c>
-      <c r="X3" s="414"/>
-      <c r="Y3" s="414"/>
-      <c r="Z3" s="415"/>
-      <c r="AA3" s="413" t="s">
+      <c r="X3" s="408"/>
+      <c r="Y3" s="408"/>
+      <c r="Z3" s="409"/>
+      <c r="AA3" s="407" t="s">
         <v>46</v>
       </c>
-      <c r="AB3" s="414"/>
-      <c r="AC3" s="414"/>
-      <c r="AD3" s="415"/>
-      <c r="AE3" s="423" t="s">
+      <c r="AB3" s="408"/>
+      <c r="AC3" s="408"/>
+      <c r="AD3" s="409"/>
+      <c r="AE3" s="410" t="s">
         <v>8</v>
       </c>
-      <c r="AF3" s="423"/>
-      <c r="AG3" s="414" t="s">
+      <c r="AF3" s="410"/>
+      <c r="AG3" s="408" t="s">
         <v>9</v>
       </c>
-      <c r="AH3" s="415"/>
-      <c r="AI3" s="424" t="s">
+      <c r="AH3" s="409"/>
+      <c r="AI3" s="411" t="s">
         <v>65</v>
       </c>
-      <c r="AJ3" s="424" t="s">
+      <c r="AJ3" s="411" t="s">
         <v>96</v>
       </c>
-      <c r="AK3" s="418" t="s">
+      <c r="AK3" s="422" t="s">
         <v>10</v>
       </c>
-      <c r="AL3" s="418" t="s">
+      <c r="AL3" s="422" t="s">
         <v>11</v>
       </c>
       <c r="AM3" s="260"/>
@@ -8187,8 +8187,8 @@
       <c r="JM3" s="264"/>
     </row>
     <row r="4" spans="1:273" s="228" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="410"/>
-      <c r="B4" s="412"/>
+      <c r="A4" s="417"/>
+      <c r="B4" s="419"/>
       <c r="C4" s="237" t="s">
         <v>13</v>
       </c>
@@ -8285,10 +8285,10 @@
       <c r="AH4" s="255" t="s">
         <v>16</v>
       </c>
-      <c r="AI4" s="425"/>
-      <c r="AJ4" s="425"/>
-      <c r="AK4" s="419"/>
-      <c r="AL4" s="419"/>
+      <c r="AI4" s="412"/>
+      <c r="AJ4" s="412"/>
+      <c r="AK4" s="423"/>
+      <c r="AL4" s="423"/>
       <c r="AM4" s="261"/>
       <c r="AN4" s="261"/>
       <c r="AO4" s="261"/>
@@ -12373,11 +12373,11 @@
       <c r="JM17" s="264"/>
     </row>
     <row r="18" spans="1:273" x14ac:dyDescent="0.15">
-      <c r="A18" s="422" t="s">
+      <c r="A18" s="406" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="422"/>
-      <c r="C18" s="422"/>
+      <c r="B18" s="406"/>
+      <c r="C18" s="406"/>
       <c r="E18" s="231"/>
       <c r="AI18" s="231" t="s">
         <v>19</v>
@@ -12394,14 +12394,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AA3:AD3"/>
-    <mergeCell ref="C3:F3"/>
     <mergeCell ref="A1:AL1"/>
     <mergeCell ref="AJ2:AK2"/>
     <mergeCell ref="G3:J3"/>
@@ -12412,6 +12404,14 @@
     <mergeCell ref="AJ3:AJ4"/>
     <mergeCell ref="AK3:AK4"/>
     <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <phoneticPr fontId="33" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
